--- a/additional_analyses_2017/analyses_overview.xlsx
+++ b/additional_analyses_2017/analyses_overview.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-30060" yWindow="-3320" windowWidth="25600" windowHeight="17840" tabRatio="500"/>
+    <workbookView xWindow="-34220" yWindow="-4940" windowWidth="25600" windowHeight="17840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="16">
   <si>
     <t>data</t>
   </si>
@@ -125,8 +125,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -176,7 +182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -199,6 +205,9 @@
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -221,6 +230,9 @@
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -550,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -601,6 +613,9 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
@@ -638,6 +653,9 @@
       <c r="F4" t="s">
         <v>15</v>
       </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -655,6 +673,9 @@
       <c r="F5" t="s">
         <v>15</v>
       </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -666,6 +687,9 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
@@ -678,10 +702,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -689,10 +722,19 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -700,14 +742,23 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
@@ -716,9 +767,15 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -727,9 +784,15 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -738,9 +801,15 @@
       <c r="C12" t="s">
         <v>5</v>
       </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
@@ -749,6 +818,9 @@
       <c r="C13" t="s">
         <v>5</v>
       </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
@@ -760,16 +832,22 @@
       <c r="C14" t="s">
         <v>5</v>
       </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -777,52 +855,58 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -832,8 +916,14 @@
       <c r="C20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -843,8 +933,14 @@
       <c r="C21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -854,8 +950,14 @@
       <c r="C22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -865,8 +967,11 @@
       <c r="C23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -876,69 +981,81 @@
       <c r="C24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -948,8 +1065,14 @@
       <c r="C30" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
@@ -959,8 +1082,14 @@
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
@@ -970,8 +1099,14 @@
       <c r="C32" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
@@ -981,8 +1116,11 @@
       <c r="C33" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -992,8 +1130,11 @@
       <c r="C34" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -1003,58 +1144,67 @@
       <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
@@ -1064,8 +1214,14 @@
       <c r="C40" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
@@ -1075,8 +1231,14 @@
       <c r="C41" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
@@ -1086,8 +1248,14 @@
       <c r="C42" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
@@ -1097,8 +1265,11 @@
       <c r="C43" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,8 +1279,11 @@
       <c r="C44" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>10</v>
       </c>
@@ -1119,10 +1293,69 @@
       <c r="C45" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1"/>
+      <c r="C50" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
